--- a/2024/shuffle-architecute/Teste10/content/results/metrics_6_4.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_6_4.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9684183679403648</v>
+        <v>0.9441729745694006</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7822544587074515</v>
+        <v>0.7826108045990378</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9605570519023079</v>
+        <v>0.05358473490690008</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7390731043919754</v>
+        <v>0.9989664321587972</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9492933890351004</v>
+        <v>0.4144070050140587</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1325413584709167</v>
+        <v>0.234294056892395</v>
       </c>
       <c r="H2" t="n">
-        <v>1.45606541633606</v>
+        <v>1.453682541847229</v>
       </c>
       <c r="I2" t="n">
-        <v>0.587873101234436</v>
+        <v>1.022092819213867</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2210410088300705</v>
+        <v>0.0006887943018227816</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4044571220874786</v>
+        <v>0.5113908052444458</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9682376989248103</v>
+        <v>0.9442174822426639</v>
       </c>
       <c r="C3" t="n">
-        <v>0.782168717765976</v>
+        <v>0.7812030123743945</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9602591689336121</v>
+        <v>-0.02131448747058529</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7343753146275681</v>
+        <v>0.9972959372826442</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9487656341052921</v>
+        <v>0.3674570393133676</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1332995891571045</v>
+        <v>0.2341073155403137</v>
       </c>
       <c r="H3" t="n">
-        <v>1.456638813018799</v>
+        <v>1.463096499443054</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5923128128051758</v>
+        <v>1.102981090545654</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2250206917524338</v>
+        <v>0.00180205178912729</v>
       </c>
       <c r="K3" t="n">
-        <v>0.408666729927063</v>
+        <v>0.5523915886878967</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9680496841271159</v>
+        <v>0.9433654413603959</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7820765707825609</v>
+        <v>0.7796081998278367</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9599792302245218</v>
+        <v>-0.1034929072187405</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7299545060986963</v>
+        <v>0.9954525105723705</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9482693582640118</v>
+        <v>0.3159397864807689</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1340886354446411</v>
+        <v>0.2376831024885178</v>
       </c>
       <c r="H4" t="n">
-        <v>1.457255005836487</v>
+        <v>1.473761081695557</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5964851379394531</v>
+        <v>1.191730737686157</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2287657111883163</v>
+        <v>0.003030555555596948</v>
       </c>
       <c r="K4" t="n">
-        <v>0.412625253200531</v>
+        <v>0.5973809957504272</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9678595697353</v>
+        <v>0.9418906309543833</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7819810820678705</v>
+        <v>0.7779232767847301</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9597173425783112</v>
+        <v>-0.1892749590685823</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7258165537313976</v>
+        <v>0.9939371408512845</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9478049389420237</v>
+        <v>0.2623202390207697</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1348865181207657</v>
+        <v>0.2438725978136063</v>
       </c>
       <c r="H5" t="n">
-        <v>1.45789361000061</v>
+        <v>1.485028028488159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6003884673118591</v>
+        <v>1.284372091293335</v>
       </c>
       <c r="J5" t="n">
-        <v>0.232271134853363</v>
+        <v>0.004040434025228024</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4163296222686768</v>
+        <v>0.6442062258720398</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9676712928430472</v>
+        <v>0.9400317206607887</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7818846437467554</v>
+        <v>0.7762239742396471</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9594733051630076</v>
+        <v>-0.2751357897612279</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7219614624728629</v>
+        <v>0.9929289560437053</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9473722041813275</v>
+        <v>0.208844671973306</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1356766670942307</v>
+        <v>0.2516740560531616</v>
       </c>
       <c r="H6" t="n">
-        <v>1.458538413047791</v>
+        <v>1.496391296386719</v>
       </c>
       <c r="I6" t="n">
-        <v>0.604025661945343</v>
+        <v>1.377098560333252</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2355369180440903</v>
+        <v>0.004712312482297421</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4197812974452972</v>
+        <v>0.6909056901931763</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9674877836676687</v>
+        <v>0.9379721763005811</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7817891100451159</v>
+        <v>0.7745632637937869</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9592467788753288</v>
+        <v>-0.3583779120985755</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7183837582568993</v>
+        <v>0.9924033082627497</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9469706036314894</v>
+        <v>0.1571732403894868</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1364468187093735</v>
+        <v>0.2603175044059753</v>
       </c>
       <c r="H7" t="n">
-        <v>1.459177255630493</v>
+        <v>1.507496476173401</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6074019074440002</v>
+        <v>1.466996908187866</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2385677248239517</v>
+        <v>0.005062616430222988</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4229846298694611</v>
+        <v>0.7360297441482544</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9673111123514814</v>
+        <v>0.9358401272720921</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7816958797333147</v>
+        <v>0.7729744690163539</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9590371813900351</v>
+        <v>-0.437273229480089</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7150762184603474</v>
+        <v>0.9922507760464644</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9465990973172965</v>
+        <v>0.1083315455753592</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1371882557868958</v>
+        <v>0.2692652642726898</v>
       </c>
       <c r="H8" t="n">
-        <v>1.459800720214844</v>
+        <v>1.518120765686035</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6105258464813232</v>
+        <v>1.55220091342926</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2413696795701981</v>
+        <v>0.005164267960935831</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4259479343891144</v>
+        <v>0.7786825299263</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9671426261458612</v>
+        <v>0.9337195979372641</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7816059090150853</v>
+        <v>0.7714762957948591</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9588437203639161</v>
+        <v>-0.5108942415904956</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7120258316975761</v>
+        <v>0.9923494482118665</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9462564107219912</v>
+        <v>0.06284696358022235</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1378953605890274</v>
+        <v>0.2781646251678467</v>
       </c>
       <c r="H9" t="n">
-        <v>1.460402369499207</v>
+        <v>1.528139114379883</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6134092211723328</v>
+        <v>1.631708860397339</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2439537793397903</v>
+        <v>0.005098510533571243</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4286813735961914</v>
+        <v>0.8184036016464233</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.966983286329963</v>
+        <v>0.9316631566976384</v>
       </c>
       <c r="C10" t="n">
-        <v>0.781519967937649</v>
+        <v>0.7700774673819923</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9586656826963569</v>
+        <v>-0.5788722594440967</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7092216800690305</v>
+        <v>0.9925974670741377</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9459411252713172</v>
+        <v>0.02090897071891606</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1385640650987625</v>
+        <v>0.2867951095104218</v>
       </c>
       <c r="H10" t="n">
-        <v>1.460977077484131</v>
+        <v>1.537492990493774</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6160627603530884</v>
+        <v>1.705122470855713</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2463292926549911</v>
+        <v>0.004933224990963936</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4311962127685547</v>
+        <v>0.8550275564193726</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9668335415032248</v>
+        <v>0.9297021561345267</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7814385066296892</v>
+        <v>0.7687806240834053</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9585021744699646</v>
+        <v>-0.6411871778440585</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7066493565316957</v>
+        <v>0.9929204223847057</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9456517855857809</v>
+        <v>-0.01749943300582246</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1391925364732742</v>
+        <v>0.2950250208377838</v>
       </c>
       <c r="H11" t="n">
-        <v>1.461521744728088</v>
+        <v>1.546165108680725</v>
       </c>
       <c r="I11" t="n">
-        <v>0.618499755859375</v>
+        <v>1.772420287132263</v>
       </c>
       <c r="J11" t="n">
-        <v>0.248508408665657</v>
+        <v>0.004717999137938023</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4335041046142578</v>
+        <v>0.8885691165924072</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9666936818681851</v>
+        <v>0.9278538077185946</v>
       </c>
       <c r="C12" t="n">
-        <v>0.781361822280872</v>
+        <v>0.7675844242295962</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9583523988969349</v>
+        <v>-0.6980335879139581</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7042946230715615</v>
+        <v>0.9932687348971159</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9453867913383273</v>
+        <v>-0.05251644164771374</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1397795081138611</v>
+        <v>0.3027821481227875</v>
       </c>
       <c r="H12" t="n">
-        <v>1.462034463882446</v>
+        <v>1.554164052009583</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6207321286201477</v>
+        <v>1.833812236785889</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2505031824111938</v>
+        <v>0.004485875833779573</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4356178045272827</v>
+        <v>0.9191490411758423</v>
       </c>
     </row>
     <row r="13">
@@ -899,34 +899,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.966563575557682</v>
+        <v>0.926126328106594</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7812900140528229</v>
+        <v>0.7664853295034429</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9582153768576331</v>
+        <v>-0.7497127881997696</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7021427912054469</v>
+        <v>0.9936111903641915</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9451445146062963</v>
+        <v>-0.08434072358374034</v>
       </c>
       <c r="G13" t="n">
-        <v>0.140325516462326</v>
+        <v>0.3100319802761078</v>
       </c>
       <c r="H13" t="n">
-        <v>1.462514638900757</v>
+        <v>1.561513781547546</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6227743029594421</v>
+        <v>1.889623880386353</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2523260712623596</v>
+        <v>0.004257654771208763</v>
       </c>
       <c r="K13" t="n">
-        <v>0.437550276517868</v>
+        <v>0.9469407796859741</v>
       </c>
     </row>
     <row r="14">
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9664430828242195</v>
+        <v>0.9245218854282041</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7812231220529261</v>
+        <v>0.7654784578926914</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9580902765872149</v>
+        <v>-0.7965840385792666</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7001799535565679</v>
+        <v>0.9939307625847932</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9449234182876709</v>
+        <v>-0.1132007593946589</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1408312022686005</v>
+        <v>0.3167654871940613</v>
       </c>
       <c r="H14" t="n">
-        <v>1.462961912155151</v>
+        <v>1.568246722221375</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6246388554573059</v>
+        <v>1.940243005752563</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2539888620376587</v>
+        <v>0.004044684581458569</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4393138885498047</v>
+        <v>0.9721438884735107</v>
       </c>
     </row>
     <row r="15">
@@ -973,34 +973,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9663318799811672</v>
+        <v>0.9230389151176597</v>
       </c>
       <c r="C15" t="n">
-        <v>0.781161057453253</v>
+        <v>0.7645582796575696</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9579762862340013</v>
+        <v>-0.839022300887156</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6983913787660933</v>
+        <v>0.9942182202562112</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9447219248337589</v>
+        <v>-0.1393319499589067</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1412978917360306</v>
+        <v>0.3229891657829285</v>
       </c>
       <c r="H15" t="n">
-        <v>1.463376998901367</v>
+        <v>1.574399948120117</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6263378262519836</v>
+        <v>1.986074686050415</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2555040419101715</v>
+        <v>0.003853115951642394</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4409210681915283</v>
+        <v>0.9949638843536377</v>
       </c>
     </row>
     <row r="16">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.966229495281489</v>
+        <v>0.921673807254497</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7811036557980565</v>
+        <v>0.763718934676604</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9578724083419987</v>
+        <v>-0.8773911709765774</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6967640219174344</v>
+        <v>0.994471287457639</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9445384528245618</v>
+        <v>-0.1629600946464451</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1417275816202164</v>
+        <v>0.3287182748317719</v>
       </c>
       <c r="H16" t="n">
-        <v>1.463760852813721</v>
+        <v>1.580012679100037</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6278859972953796</v>
+        <v>2.027511596679688</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2568826079368591</v>
+        <v>0.003684466006234288</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4423844814300537</v>
+        <v>1.015598058700562</v>
       </c>
     </row>
     <row r="17">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9661355012977729</v>
+        <v>0.9204207962036474</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7810507284870036</v>
+        <v>0.7629545943983166</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9577779452703771</v>
+        <v>-0.912055943561344</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6952856403633816</v>
+        <v>0.9946900180198456</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9443717333954391</v>
+        <v>-0.1843109462968295</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1421220600605011</v>
+        <v>0.3339768648147583</v>
       </c>
       <c r="H17" t="n">
-        <v>1.464114904403687</v>
+        <v>1.585123777389526</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6292939782142639</v>
+        <v>2.064948320388794</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2581350207328796</v>
+        <v>0.003538698656484485</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4437143206596375</v>
+        <v>1.03424346446991</v>
       </c>
     </row>
     <row r="18">
@@ -1084,34 +1084,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9660494017246085</v>
+        <v>0.919273723095998</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7810020676605621</v>
+        <v>0.7622595394410536</v>
       </c>
       <c r="D18" t="n">
-        <v>0.957692115995495</v>
+        <v>-0.9433495642884597</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6939433189136732</v>
+        <v>0.9948764983341305</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9442202305264511</v>
+        <v>-0.2035896981392742</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1424833834171295</v>
+        <v>0.3387909233570099</v>
       </c>
       <c r="H18" t="n">
-        <v>1.464440226554871</v>
+        <v>1.589771509170532</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6305731534957886</v>
+        <v>2.09874439239502</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2592721283435822</v>
+        <v>0.003414423670619726</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4449228048324585</v>
+        <v>1.051079392433167</v>
       </c>
     </row>
     <row r="19">
@@ -1121,34 +1121,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9659706929693578</v>
+        <v>0.9182259166391546</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7809574510943078</v>
+        <v>0.7616281908504544</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9576142237432782</v>
+        <v>-0.9715837214873531</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6927252183919618</v>
+        <v>0.9950340256371117</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9440827953158113</v>
+        <v>-0.2209879574432547</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1428137272596359</v>
+        <v>0.3431883156299591</v>
       </c>
       <c r="H19" t="n">
-        <v>1.464738607406616</v>
+        <v>1.593993425369263</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6317341327667236</v>
+        <v>2.129235982894897</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2603040635585785</v>
+        <v>0.003309443825855851</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4460189938545227</v>
+        <v>1.066272974014282</v>
       </c>
     </row>
     <row r="20">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9658989179607068</v>
+        <v>0.9172705385169194</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7809166333847419</v>
+        <v>0.761055326510794</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9575436392628633</v>
+        <v>-0.9970471007414481</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6916219894328981</v>
+        <v>0.9951660883448841</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9439582335214225</v>
+        <v>-0.2366823609274813</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1431149542331696</v>
+        <v>0.3471978902816772</v>
       </c>
       <c r="H20" t="n">
-        <v>1.465011596679688</v>
+        <v>1.597824096679688</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6327861547470093</v>
+        <v>2.15673565864563</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2612386345863342</v>
+        <v>0.003221434075385332</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4470125734806061</v>
+        <v>1.079978704452515</v>
       </c>
     </row>
     <row r="21">
@@ -1195,34 +1195,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9658334679634351</v>
+        <v>0.9164007194698831</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7808793216917337</v>
+        <v>0.7605359564128668</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9574796305282932</v>
+        <v>-1.020005469400016</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6906223543662466</v>
+        <v>0.9952759850144506</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9438453473541614</v>
+        <v>-0.2508360291424023</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1433896273374557</v>
+        <v>0.3508482277393341</v>
       </c>
       <c r="H21" t="n">
-        <v>1.465260982513428</v>
+        <v>1.60129714012146</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6337401866912842</v>
+        <v>2.181529760360718</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2620854675769806</v>
+        <v>0.003148196497932076</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4479129910469055</v>
+        <v>1.092338919639587</v>
       </c>
     </row>
     <row r="22">
@@ -1232,34 +1232,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9657738809022054</v>
+        <v>0.9156099151705701</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7808452732733312</v>
+        <v>0.7600654762078648</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9574216083747453</v>
+        <v>-1.040697568267388</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6897174316109962</v>
+        <v>0.9953670519965342</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9437431283955768</v>
+        <v>-0.2635959149008926</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1436396986246109</v>
+        <v>0.354167103767395</v>
       </c>
       <c r="H22" t="n">
-        <v>1.46548867225647</v>
+        <v>1.604443311691284</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6346049308776855</v>
+        <v>2.203876495361328</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2628520429134369</v>
+        <v>0.003087507095187902</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4487283527851105</v>
+        <v>1.103482007980347</v>
       </c>
     </row>
     <row r="23">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.96571979129163</v>
+        <v>0.9148917508006232</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7808142783428517</v>
+        <v>0.7596395822801923</v>
       </c>
       <c r="D23" t="n">
-        <v>0.957369202788643</v>
+        <v>-1.05934418714089</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6888996736784831</v>
+        <v>0.9954422458291664</v>
       </c>
       <c r="F23" t="n">
-        <v>0.943650741304467</v>
+        <v>-0.2750969842427806</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1438667178153992</v>
+        <v>0.3571811020374298</v>
       </c>
       <c r="H23" t="n">
-        <v>1.465695858001709</v>
+        <v>1.607291221618652</v>
       </c>
       <c r="I23" t="n">
-        <v>0.635386049747467</v>
+        <v>2.224014043807983</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2635448276996613</v>
+        <v>0.003037396119907498</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4494652450084686</v>
+        <v>1.113525748252869</v>
       </c>
     </row>
     <row r="24">
@@ -1306,34 +1306,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9656706448287478</v>
+        <v>0.9142402708494607</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7807860814352128</v>
+        <v>0.7592542837685237</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9573217707723458</v>
+        <v>-1.076143042357847</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6881592491271364</v>
+        <v>0.9955040794555817</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9435670722570637</v>
+        <v>-0.2854606665104122</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1440729647874832</v>
+        <v>0.3599151968955994</v>
       </c>
       <c r="H24" t="n">
-        <v>1.465884447097778</v>
+        <v>1.609867811203003</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6360929608345032</v>
+        <v>2.242156267166138</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2641720771789551</v>
+        <v>0.002996188588440418</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4501326382160187</v>
+        <v>1.122576236724854</v>
       </c>
     </row>
     <row r="25">
@@ -1343,34 +1343,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9656260568245348</v>
+        <v>0.9136497670526661</v>
       </c>
       <c r="C25" t="n">
-        <v>0.780760455831952</v>
+        <v>0.758905892914159</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9572788901165554</v>
+        <v>-1.091275993072802</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6874904027254419</v>
+        <v>0.9955547778863594</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9434914855088707</v>
+        <v>-0.294798454363137</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1442600786685944</v>
+        <v>0.3623934686183929</v>
       </c>
       <c r="H25" t="n">
-        <v>1.466055870056152</v>
+        <v>1.612197399139404</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6367320418357849</v>
+        <v>2.258499145507812</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2647386789321899</v>
+        <v>0.002962402068078518</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4507355690002441</v>
+        <v>1.130730867385864</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9655856197531137</v>
+        <v>0.9131149628539444</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7807371712608111</v>
+        <v>0.7585910450567664</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9572401104562088</v>
+        <v>-1.104906726667643</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6868863089996926</v>
+        <v>0.9955961884050498</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9434232181590583</v>
+        <v>-0.3032105482685985</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1444297879934311</v>
+        <v>0.3646379113197327</v>
       </c>
       <c r="H26" t="n">
-        <v>1.466211557388306</v>
+        <v>1.61430287361145</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6373100876808167</v>
+        <v>2.27321982383728</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2652504146099091</v>
+        <v>0.002934805117547512</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4512800872325897</v>
+        <v>1.138077020645142</v>
       </c>
     </row>
   </sheetData>
